--- a/数据整理/stocks/A股/深证主板/000970-中科三环.xlsx
+++ b/数据整理/stocks/A股/深证主板/000970-中科三环.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000970-中科三环.xlsx
+++ b/数据整理/stocks/A股/深证主板/000970-中科三环.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7503</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,1371 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6983</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012798</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000970-中科三环.xlsx
+++ b/数据整理/stocks/A股/深证主板/000970-中科三环.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -532,6 +549,896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012798</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1915,7 +2822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2123,7 +3030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000970-中科三环.xlsx
+++ b/数据整理/stocks/A股/深证主板/000970-中科三环.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -549,6 +566,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001641</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012798</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1438,7 +1965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2822,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3030,7 +3557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
